--- a/EstimatedActiveCasesOverTimeByCounty/2021-02-12.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-02-12.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="327">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/11/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 02/12/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Active Cases 02-10</t>
+  </si>
+  <si>
+    <t>Active Cases 02-11</t>
   </si>
   <si>
     <t/>
@@ -1168,6 +1171,7 @@
     <col min="61" max="61" width="12.0" customWidth="true"/>
     <col min="62" max="62" width="12.0" customWidth="true"/>
     <col min="63" max="63" width="12.0" customWidth="true"/>
+    <col min="64" max="64" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1370,13 +1374,16 @@
       <c r="BK3" t="s" s="10">
         <v>64</v>
       </c>
+      <c r="BL3" t="s" s="10">
+        <v>65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1560,14 +1567,17 @@
       </c>
       <c r="BK4" t="n">
         <v>244.0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>249.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1751,14 +1761,17 @@
       </c>
       <c r="BK5" t="n">
         <v>146.0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1942,14 +1955,17 @@
       </c>
       <c r="BK6" t="n">
         <v>693.0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>695.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2133,14 +2149,17 @@
       </c>
       <c r="BK7" t="n">
         <v>158.0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2323,15 +2342,18 @@
         <v>1.0</v>
       </c>
       <c r="BK8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2514,15 +2536,18 @@
         <v>9.0</v>
       </c>
       <c r="BK9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BL9" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2706,14 +2731,17 @@
       </c>
       <c r="BK10" t="n">
         <v>235.0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>219.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2897,14 +2925,17 @@
       </c>
       <c r="BK11" t="n">
         <v>82.0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3088,14 +3119,17 @@
       </c>
       <c r="BK12" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -3279,14 +3313,17 @@
       </c>
       <c r="BK13" t="n">
         <v>75.0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -3470,14 +3507,17 @@
       </c>
       <c r="BK14" t="n">
         <v>1901.0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1912.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3661,14 +3701,17 @@
       </c>
       <c r="BK15" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -3852,14 +3895,17 @@
       </c>
       <c r="BK16" t="n">
         <v>230.0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>236.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -4043,14 +4089,17 @@
       </c>
       <c r="BK17" t="n">
         <v>1265.0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1188.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -4234,14 +4283,17 @@
       </c>
       <c r="BK18" t="n">
         <v>25160.0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>24030.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -4425,14 +4477,17 @@
       </c>
       <c r="BK19" t="n">
         <v>189.0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -4615,15 +4670,18 @@
         <v>0.0</v>
       </c>
       <c r="BK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -4806,15 +4864,18 @@
         <v>295.0</v>
       </c>
       <c r="BK21" t="n">
+        <v>289.0</v>
+      </c>
+      <c r="BL21" t="n">
         <v>289.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -4998,14 +5059,17 @@
       </c>
       <c r="BK22" t="n">
         <v>535.0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>564.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -5189,14 +5253,17 @@
       </c>
       <c r="BK23" t="n">
         <v>4650.0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>4421.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -5380,14 +5447,17 @@
       </c>
       <c r="BK24" t="n">
         <v>1354.0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1268.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -5571,14 +5641,17 @@
       </c>
       <c r="BK25" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -5761,15 +5834,18 @@
         <v>7.0</v>
       </c>
       <c r="BK26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BL26" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -5953,14 +6029,17 @@
       </c>
       <c r="BK27" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -6143,15 +6222,18 @@
         <v>126.0</v>
       </c>
       <c r="BK28" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="BL28" t="n">
         <v>126.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -6335,14 +6417,17 @@
       </c>
       <c r="BK29" t="n">
         <v>583.0</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>578.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -6526,14 +6611,17 @@
       </c>
       <c r="BK30" t="n">
         <v>1013.0</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1005.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -6717,14 +6805,17 @@
       </c>
       <c r="BK31" t="n">
         <v>1363.0</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1308.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -6908,14 +6999,17 @@
       </c>
       <c r="BK32" t="n">
         <v>91.0</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -7099,14 +7193,17 @@
       </c>
       <c r="BK33" t="n">
         <v>10.0</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -7290,14 +7387,17 @@
       </c>
       <c r="BK34" t="n">
         <v>4555.0</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>4493.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -7481,14 +7581,17 @@
       </c>
       <c r="BK35" t="n">
         <v>178.0</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -7672,14 +7775,17 @@
       </c>
       <c r="BK36" t="n">
         <v>16.0</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -7863,14 +7969,17 @@
       </c>
       <c r="BK37" t="n">
         <v>107.0</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>115.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -8053,15 +8162,18 @@
         <v>24.0</v>
       </c>
       <c r="BK38" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="BL38" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -8244,15 +8356,18 @@
         <v>370.0</v>
       </c>
       <c r="BK39" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="BL39" t="n">
         <v>334.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -8436,14 +8551,17 @@
       </c>
       <c r="BK40" t="n">
         <v>13.0</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -8627,14 +8745,17 @@
       </c>
       <c r="BK41" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -8818,14 +8939,17 @@
       </c>
       <c r="BK42" t="n">
         <v>8.0</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -9009,14 +9133,17 @@
       </c>
       <c r="BK43" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -9200,14 +9327,17 @@
       </c>
       <c r="BK44" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -9391,14 +9521,17 @@
       </c>
       <c r="BK45" t="n">
         <v>4.0</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -9582,14 +9715,17 @@
       </c>
       <c r="BK46" t="n">
         <v>3280.0</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>3185.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -9773,14 +9909,17 @@
       </c>
       <c r="BK47" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -9964,14 +10103,17 @@
       </c>
       <c r="BK48" t="n">
         <v>64.0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -10155,14 +10297,17 @@
       </c>
       <c r="BK49" t="n">
         <v>626.0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>645.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -10346,14 +10491,17 @@
       </c>
       <c r="BK50" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -10536,15 +10684,18 @@
         <v>28.0</v>
       </c>
       <c r="BK51" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BL51" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -10728,14 +10879,17 @@
       </c>
       <c r="BK52" t="n">
         <v>64.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -10919,14 +11073,17 @@
       </c>
       <c r="BK53" t="n">
         <v>512.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>467.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -11109,15 +11266,18 @@
         <v>0.0</v>
       </c>
       <c r="BK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -11300,15 +11460,18 @@
         <v>0.0</v>
       </c>
       <c r="BK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL55" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -11492,14 +11655,17 @@
       </c>
       <c r="BK56" t="n">
         <v>57.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -11682,15 +11848,18 @@
         <v>38.0</v>
       </c>
       <c r="BK57" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BL57" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -11874,14 +12043,17 @@
       </c>
       <c r="BK58" t="n">
         <v>20.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -12064,15 +12236,18 @@
         <v>46.0</v>
       </c>
       <c r="BK59" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BL59" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -12256,14 +12431,17 @@
       </c>
       <c r="BK60" t="n">
         <v>25994.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>25262.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -12446,15 +12624,18 @@
         <v>22.0</v>
       </c>
       <c r="BK61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BL61" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -12638,14 +12819,17 @@
       </c>
       <c r="BK62" t="n">
         <v>90.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -12828,15 +13012,18 @@
         <v>45.0</v>
       </c>
       <c r="BK63" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BL63" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -13020,14 +13207,17 @@
       </c>
       <c r="BK64" t="n">
         <v>14889.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>14928.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -13211,14 +13401,17 @@
       </c>
       <c r="BK65" t="n">
         <v>138.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -13401,15 +13594,18 @@
         <v>9.0</v>
       </c>
       <c r="BK66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BL66" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -13593,14 +13789,17 @@
       </c>
       <c r="BK67" t="n">
         <v>112.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -13784,14 +13983,17 @@
       </c>
       <c r="BK68" t="n">
         <v>22.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -13975,14 +14177,17 @@
       </c>
       <c r="BK69" t="n">
         <v>51.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -14166,14 +14371,17 @@
       </c>
       <c r="BK70" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -14357,14 +14565,17 @@
       </c>
       <c r="BK71" t="n">
         <v>2126.0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2387.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -14548,14 +14759,17 @@
       </c>
       <c r="BK72" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -14739,14 +14953,17 @@
       </c>
       <c r="BK73" t="n">
         <v>496.0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>493.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -14930,14 +15147,17 @@
       </c>
       <c r="BK74" t="n">
         <v>8177.0</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>8142.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -15121,14 +15341,17 @@
       </c>
       <c r="BK75" t="n">
         <v>52.0</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -15312,14 +15535,17 @@
       </c>
       <c r="BK76" t="n">
         <v>280.0</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -15503,14 +15729,17 @@
       </c>
       <c r="BK77" t="n">
         <v>68.0</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -15694,14 +15923,17 @@
       </c>
       <c r="BK78" t="n">
         <v>393.0</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>390.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -15884,15 +16116,18 @@
         <v>2.0</v>
       </c>
       <c r="BK79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL79" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -16076,14 +16311,17 @@
       </c>
       <c r="BK80" t="n">
         <v>55.0</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -16266,15 +16504,18 @@
         <v>6.0</v>
       </c>
       <c r="BK81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BL81" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -16458,14 +16699,17 @@
       </c>
       <c r="BK82" t="n">
         <v>13491.0</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>12950.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -16649,14 +16893,17 @@
       </c>
       <c r="BK83" t="n">
         <v>108.0</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -16840,14 +17087,17 @@
       </c>
       <c r="BK84" t="n">
         <v>417.0</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>404.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -17031,14 +17281,17 @@
       </c>
       <c r="BK85" t="n">
         <v>86.0</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -17221,15 +17474,18 @@
         <v>22.0</v>
       </c>
       <c r="BK86" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BL86" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -17413,14 +17669,17 @@
       </c>
       <c r="BK87" t="n">
         <v>6528.0</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>6200.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -17604,14 +17863,17 @@
       </c>
       <c r="BK88" t="n">
         <v>33.0</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -17795,14 +18057,17 @@
       </c>
       <c r="BK89" t="n">
         <v>70.0</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -17985,15 +18250,18 @@
         <v>0.0</v>
       </c>
       <c r="BK90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL90" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -18176,15 +18444,18 @@
         <v>14.0</v>
       </c>
       <c r="BK91" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="BL91" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -18368,14 +18639,17 @@
       </c>
       <c r="BK92" t="n">
         <v>101.0</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B93" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -18559,14 +18833,17 @@
       </c>
       <c r="BK93" t="n">
         <v>78.0</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -18749,15 +19026,18 @@
         <v>264.0</v>
       </c>
       <c r="BK94" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="BL94" t="n">
         <v>286.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -18941,14 +19221,17 @@
       </c>
       <c r="BK95" t="n">
         <v>3353.0</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>3489.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -19131,15 +19414,18 @@
         <v>658.0</v>
       </c>
       <c r="BK96" t="n">
+        <v>658.0</v>
+      </c>
+      <c r="BL96" t="n">
         <v>658.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -19323,14 +19609,17 @@
       </c>
       <c r="BK97" t="n">
         <v>515.0</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>513.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B98" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -19513,15 +19802,18 @@
         <v>97.0</v>
       </c>
       <c r="BK98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="BL98" t="n">
         <v>97.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -19704,15 +19996,18 @@
         <v>46.0</v>
       </c>
       <c r="BK99" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="BL99" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -19896,14 +20191,17 @@
       </c>
       <c r="BK100" t="n">
         <v>86.0</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -20087,14 +20385,17 @@
       </c>
       <c r="BK101" t="n">
         <v>56.0</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -20277,15 +20578,18 @@
         <v>7.0</v>
       </c>
       <c r="BK102" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BL102" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -20468,15 +20772,18 @@
         <v>818.0</v>
       </c>
       <c r="BK103" t="n">
+        <v>816.0</v>
+      </c>
+      <c r="BL103" t="n">
         <v>816.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -20660,14 +20967,17 @@
       </c>
       <c r="BK104" t="n">
         <v>37418.0</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>34209.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -20851,14 +21161,17 @@
       </c>
       <c r="BK105" t="n">
         <v>937.0</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>946.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -21041,15 +21354,18 @@
         <v>66.0</v>
       </c>
       <c r="BK106" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BL106" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -21233,14 +21549,17 @@
       </c>
       <c r="BK107" t="n">
         <v>5.0</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -21424,14 +21743,17 @@
       </c>
       <c r="BK108" t="n">
         <v>1559.0</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1544.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -21614,15 +21936,18 @@
         <v>40.0</v>
       </c>
       <c r="BK109" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BL109" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -21806,14 +22131,17 @@
       </c>
       <c r="BK110" t="n">
         <v>1738.0</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1830.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -21997,14 +22325,17 @@
       </c>
       <c r="BK111" t="n">
         <v>2241.0</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>2233.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -22188,14 +22519,17 @@
       </c>
       <c r="BK112" t="n">
         <v>842.0</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>854.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -22379,14 +22713,17 @@
       </c>
       <c r="BK113" t="n">
         <v>91.0</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -22570,14 +22907,17 @@
       </c>
       <c r="BK114" t="n">
         <v>122.0</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -22761,14 +23101,17 @@
       </c>
       <c r="BK115" t="n">
         <v>203.0</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -22952,14 +23295,17 @@
       </c>
       <c r="BK116" t="n">
         <v>81.0</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -23143,14 +23489,17 @@
       </c>
       <c r="BK117" t="n">
         <v>173.0</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -23333,15 +23682,18 @@
         <v>0.0</v>
       </c>
       <c r="BK118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -23525,14 +23877,17 @@
       </c>
       <c r="BK119" t="n">
         <v>1243.0</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1241.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -23716,14 +24071,17 @@
       </c>
       <c r="BK120" t="n">
         <v>103.0</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -23906,15 +24264,18 @@
         <v>17.0</v>
       </c>
       <c r="BK121" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BL121" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -24098,14 +24459,17 @@
       </c>
       <c r="BK122" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -24289,14 +24653,17 @@
       </c>
       <c r="BK123" t="n">
         <v>47.0</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B124" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -24480,14 +24847,17 @@
       </c>
       <c r="BK124" t="n">
         <v>49.0</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -24670,15 +25040,18 @@
         <v>32.0</v>
       </c>
       <c r="BK125" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BL125" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B126" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -24862,14 +25235,17 @@
       </c>
       <c r="BK126" t="n">
         <v>2677.0</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>2647.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -25053,14 +25429,17 @@
       </c>
       <c r="BK127" t="n">
         <v>77.0</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -25244,14 +25623,17 @@
       </c>
       <c r="BK128" t="n">
         <v>303.0</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B129" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -25435,14 +25817,17 @@
       </c>
       <c r="BK129" t="n">
         <v>366.0</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>380.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -25626,14 +26011,17 @@
       </c>
       <c r="BK130" t="n">
         <v>118.0</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -25816,15 +26204,18 @@
         <v>61.0</v>
       </c>
       <c r="BK131" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BL131" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -26008,14 +26399,17 @@
       </c>
       <c r="BK132" t="n">
         <v>426.0</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>438.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -26199,14 +26593,17 @@
       </c>
       <c r="BK133" t="n">
         <v>144.0</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B134" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -26390,14 +26787,17 @@
       </c>
       <c r="BK134" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B135" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -26580,15 +26980,18 @@
         <v>1.0</v>
       </c>
       <c r="BK135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL135" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -26772,14 +27175,17 @@
       </c>
       <c r="BK136" t="n">
         <v>210.0</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B137" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -26963,14 +27369,17 @@
       </c>
       <c r="BK137" t="n">
         <v>15.0</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B138" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -27153,15 +27562,18 @@
         <v>1.0</v>
       </c>
       <c r="BK138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL138" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -27344,15 +27756,18 @@
         <v>10.0</v>
       </c>
       <c r="BK139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL139" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -27536,14 +27951,17 @@
       </c>
       <c r="BK140" t="n">
         <v>251.0</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>253.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B141" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -27726,15 +28144,18 @@
         <v>3.0</v>
       </c>
       <c r="BK141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL141" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B142" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -27918,14 +28339,17 @@
       </c>
       <c r="BK142" t="n">
         <v>305.0</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>316.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -28108,15 +28532,18 @@
         <v>67.0</v>
       </c>
       <c r="BK143" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BL143" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B144" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -28300,14 +28727,17 @@
       </c>
       <c r="BK144" t="n">
         <v>601.0</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>591.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B145" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -28491,14 +28921,17 @@
       </c>
       <c r="BK145" t="n">
         <v>132.0</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -28682,14 +29115,17 @@
       </c>
       <c r="BK146" t="n">
         <v>54.0</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -28873,14 +29309,17 @@
       </c>
       <c r="BK147" t="n">
         <v>408.0</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>426.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -29064,14 +29503,17 @@
       </c>
       <c r="BK148" t="n">
         <v>294.0</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>298.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -29255,14 +29697,17 @@
       </c>
       <c r="BK149" t="n">
         <v>496.0</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>483.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B150" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -29446,14 +29891,17 @@
       </c>
       <c r="BK150" t="n">
         <v>620.0</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>626.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B151" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -29637,14 +30085,17 @@
       </c>
       <c r="BK151" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B152" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -29828,14 +30279,17 @@
       </c>
       <c r="BK152" t="n">
         <v>69.0</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B153" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -30019,14 +30473,17 @@
       </c>
       <c r="BK153" t="n">
         <v>348.0</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B154" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -30209,15 +30666,18 @@
         <v>0.0</v>
       </c>
       <c r="BK154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B155" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -30401,14 +30861,17 @@
       </c>
       <c r="BK155" t="n">
         <v>906.0</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>917.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B156" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -30591,15 +31054,18 @@
         <v>5.0</v>
       </c>
       <c r="BK156" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BL156" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B157" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -30783,14 +31249,17 @@
       </c>
       <c r="BK157" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B158" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -30974,14 +31443,17 @@
       </c>
       <c r="BK158" t="n">
         <v>641.0</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>605.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -31165,14 +31637,17 @@
       </c>
       <c r="BK159" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -31356,14 +31831,17 @@
       </c>
       <c r="BK160" t="n">
         <v>207.0</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>205.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -31546,15 +32024,18 @@
         <v>119.0</v>
       </c>
       <c r="BK161" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BL161" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -31738,14 +32219,17 @@
       </c>
       <c r="BK162" t="n">
         <v>40.0</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B163" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -31929,14 +32413,17 @@
       </c>
       <c r="BK163" t="n">
         <v>29.0</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B164" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -32120,14 +32607,17 @@
       </c>
       <c r="BK164" t="n">
         <v>141.0</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>129.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B165" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -32311,14 +32801,17 @@
       </c>
       <c r="BK165" t="n">
         <v>1354.0</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1384.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B166" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -32502,14 +32995,17 @@
       </c>
       <c r="BK166" t="n">
         <v>0.0</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B167" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -32693,14 +33189,17 @@
       </c>
       <c r="BK167" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B168" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -32884,14 +33383,17 @@
       </c>
       <c r="BK168" t="n">
         <v>1376.0</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1378.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B169" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -33074,15 +33576,18 @@
         <v>171.0</v>
       </c>
       <c r="BK169" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="BL169" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B170" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -33266,14 +33771,17 @@
       </c>
       <c r="BK170" t="n">
         <v>146.0</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B171" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -33456,15 +33964,18 @@
         <v>4.0</v>
       </c>
       <c r="BK171" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BL171" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -33648,14 +34159,17 @@
       </c>
       <c r="BK172" t="n">
         <v>27.0</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B173" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -33839,14 +34353,17 @@
       </c>
       <c r="BK173" t="n">
         <v>22094.0</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>22125.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B174" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -34030,14 +34547,17 @@
       </c>
       <c r="BK174" t="n">
         <v>46.0</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -34221,14 +34741,17 @@
       </c>
       <c r="BK175" t="n">
         <v>142.0</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -34411,15 +34934,18 @@
         <v>1.0</v>
       </c>
       <c r="BK176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL176" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B177" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -34603,14 +35129,17 @@
       </c>
       <c r="BK177" t="n">
         <v>283.0</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>289.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -34794,14 +35323,17 @@
       </c>
       <c r="BK178" t="n">
         <v>366.0</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>365.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B179" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -34985,14 +35517,17 @@
       </c>
       <c r="BK179" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B180" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -35175,15 +35710,18 @@
         <v>144.0</v>
       </c>
       <c r="BK180" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="BL180" t="n">
         <v>131.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -35367,14 +35905,17 @@
       </c>
       <c r="BK181" t="n">
         <v>2406.0</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>2357.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -35558,14 +36099,17 @@
       </c>
       <c r="BK182" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B183" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -35748,15 +36292,18 @@
         <v>48.0</v>
       </c>
       <c r="BK183" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BL183" t="n">
         <v>43.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B184" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -35939,15 +36486,18 @@
         <v>1194.0</v>
       </c>
       <c r="BK184" t="n">
+        <v>1194.0</v>
+      </c>
+      <c r="BL184" t="n">
         <v>1194.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B185" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -36131,14 +36681,17 @@
       </c>
       <c r="BK185" t="n">
         <v>70.0</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B186" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -36322,14 +36875,17 @@
       </c>
       <c r="BK186" t="n">
         <v>151.0</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B187" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -36513,14 +37069,17 @@
       </c>
       <c r="BK187" t="n">
         <v>347.0</v>
+      </c>
+      <c r="BL187" t="n">
+        <v>378.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B188" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -36703,15 +37262,18 @@
         <v>18.0</v>
       </c>
       <c r="BK188" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BL188" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B189" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -36895,14 +37457,17 @@
       </c>
       <c r="BK189" t="n">
         <v>54.0</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -37085,15 +37650,18 @@
         <v>345.0</v>
       </c>
       <c r="BK190" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="BL190" t="n">
         <v>235.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B191" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -37277,14 +37845,17 @@
       </c>
       <c r="BK191" t="n">
         <v>763.0</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>726.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -37468,14 +38039,17 @@
       </c>
       <c r="BK192" t="n">
         <v>79.0</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B193" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -37659,14 +38233,17 @@
       </c>
       <c r="BK193" t="n">
         <v>213.0</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>226.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B194" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -37850,14 +38427,17 @@
       </c>
       <c r="BK194" t="n">
         <v>946.0</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>881.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B195" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -38041,14 +38621,17 @@
       </c>
       <c r="BK195" t="n">
         <v>6.0</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B196" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -38232,14 +38815,17 @@
       </c>
       <c r="BK196" t="n">
         <v>2.0</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B197" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -38423,14 +39009,17 @@
       </c>
       <c r="BK197" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B198" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -38614,14 +39203,17 @@
       </c>
       <c r="BK198" t="n">
         <v>143.0</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B199" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -38805,14 +39397,17 @@
       </c>
       <c r="BK199" t="n">
         <v>34.0</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B200" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -38995,15 +39590,18 @@
         <v>1.0</v>
       </c>
       <c r="BK200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B201" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -39187,14 +39785,17 @@
       </c>
       <c r="BK201" t="n">
         <v>457.0</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>452.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B202" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -39378,14 +39979,17 @@
       </c>
       <c r="BK202" t="n">
         <v>288.0</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>293.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B203" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -39569,14 +40173,17 @@
       </c>
       <c r="BK203" t="n">
         <v>12.0</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B204" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -39760,14 +40367,17 @@
       </c>
       <c r="BK204" t="n">
         <v>397.0</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>383.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B205" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -39950,15 +40560,18 @@
         <v>0.0</v>
       </c>
       <c r="BK205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B206" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -40141,15 +40754,18 @@
         <v>27.0</v>
       </c>
       <c r="BK206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL206" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B207" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -40333,14 +40949,17 @@
       </c>
       <c r="BK207" t="n">
         <v>210.0</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>215.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B208" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -40523,15 +41142,18 @@
         <v>203.0</v>
       </c>
       <c r="BK208" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="BL208" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B209" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -40715,14 +41337,17 @@
       </c>
       <c r="BK209" t="n">
         <v>205.0</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B210" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -40906,14 +41531,17 @@
       </c>
       <c r="BK210" t="n">
         <v>19.0</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B211" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -41096,15 +41724,18 @@
         <v>53.0</v>
       </c>
       <c r="BK211" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BL211" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B212" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -41288,14 +41919,17 @@
       </c>
       <c r="BK212" t="n">
         <v>7.0</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B213" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -41479,14 +42113,17 @@
       </c>
       <c r="BK213" t="n">
         <v>130.0</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B214" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -41669,15 +42306,18 @@
         <v>11.0</v>
       </c>
       <c r="BK214" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="BL214" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B215" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -41861,14 +42501,17 @@
       </c>
       <c r="BK215" t="n">
         <v>5776.0</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>5904.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B216" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -42052,14 +42695,17 @@
       </c>
       <c r="BK216" t="n">
         <v>11.0</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B217" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -42243,14 +42889,17 @@
       </c>
       <c r="BK217" t="n">
         <v>991.0</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>917.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B218" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -42434,14 +43083,17 @@
       </c>
       <c r="BK218" t="n">
         <v>9.0</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B219" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -42625,14 +43277,17 @@
       </c>
       <c r="BK219" t="n">
         <v>3.0</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B220" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -42815,15 +43470,18 @@
         <v>0.0</v>
       </c>
       <c r="BK220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B221" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -43007,14 +43665,17 @@
       </c>
       <c r="BK221" t="n">
         <v>31.0</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B222" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -43198,14 +43859,17 @@
       </c>
       <c r="BK222" t="n">
         <v>36.0</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B223" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -43389,14 +44053,17 @@
       </c>
       <c r="BK223" t="n">
         <v>36622.0</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>35341.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B224" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -43580,14 +44247,17 @@
       </c>
       <c r="BK224" t="n">
         <v>1534.0</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1464.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B225" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -43770,15 +44440,18 @@
         <v>0.0</v>
       </c>
       <c r="BK225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B226" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -43961,15 +44634,18 @@
         <v>43.0</v>
       </c>
       <c r="BK226" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BL226" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B227" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -44152,15 +44828,18 @@
         <v>1.0</v>
       </c>
       <c r="BK227" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL227" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B228" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -44344,14 +45023,17 @@
       </c>
       <c r="BK228" t="n">
         <v>471.0</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>473.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B229" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -44535,14 +45217,17 @@
       </c>
       <c r="BK229" t="n">
         <v>601.0</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>582.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B230" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -44726,14 +45411,17 @@
       </c>
       <c r="BK230" t="n">
         <v>3695.0</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>3506.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B231" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -44916,15 +45604,18 @@
         <v>76.0</v>
       </c>
       <c r="BK231" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BL231" t="n">
         <v>75.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B232" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -45108,14 +45799,17 @@
       </c>
       <c r="BK232" t="n">
         <v>23.0</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B233" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -45298,15 +45992,18 @@
         <v>528.0</v>
       </c>
       <c r="BK233" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="BL233" t="n">
         <v>533.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B234" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -45490,14 +46187,17 @@
       </c>
       <c r="BK234" t="n">
         <v>37.0</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B235" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -45681,14 +46381,17 @@
       </c>
       <c r="BK235" t="n">
         <v>136.0</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B236" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -45872,14 +46575,17 @@
       </c>
       <c r="BK236" t="n">
         <v>592.0</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>501.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B237" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -46063,14 +46769,17 @@
       </c>
       <c r="BK237" t="n">
         <v>1287.0</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1329.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B238" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -46253,15 +46962,18 @@
         <v>652.0</v>
       </c>
       <c r="BK238" t="n">
+        <v>649.0</v>
+      </c>
+      <c r="BL238" t="n">
         <v>649.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B239" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -46445,14 +47157,17 @@
       </c>
       <c r="BK239" t="n">
         <v>532.0</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>473.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B240" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -46636,14 +47351,17 @@
       </c>
       <c r="BK240" t="n">
         <v>181.0</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B241" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -46827,14 +47545,17 @@
       </c>
       <c r="BK241" t="n">
         <v>89.0</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B242" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -47018,14 +47739,17 @@
       </c>
       <c r="BK242" t="n">
         <v>985.0</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>991.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B243" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -47209,14 +47933,17 @@
       </c>
       <c r="BK243" t="n">
         <v>4787.0</v>
+      </c>
+      <c r="BL243" t="n">
+        <v>4612.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B244" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -47400,14 +48127,17 @@
       </c>
       <c r="BK244" t="n">
         <v>188.0</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B245" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -47591,14 +48321,17 @@
       </c>
       <c r="BK245" t="n">
         <v>28.0</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B246" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -47782,14 +48515,17 @@
       </c>
       <c r="BK246" t="n">
         <v>556.0</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>553.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B247" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -47972,15 +48708,18 @@
         <v>7.0</v>
       </c>
       <c r="BK247" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BL247" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B248" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -48163,15 +48902,18 @@
         <v>263.0</v>
       </c>
       <c r="BK248" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="BL248" t="n">
         <v>262.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B249" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -48355,14 +49097,17 @@
       </c>
       <c r="BK249" t="n">
         <v>943.0</v>
+      </c>
+      <c r="BL249" t="n">
+        <v>935.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B250" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -48546,14 +49291,17 @@
       </c>
       <c r="BK250" t="n">
         <v>150.0</v>
+      </c>
+      <c r="BL250" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B251" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -48737,14 +49485,17 @@
       </c>
       <c r="BK251" t="n">
         <v>32.0</v>
+      </c>
+      <c r="BL251" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B252" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -48928,14 +49679,17 @@
       </c>
       <c r="BK252" t="n">
         <v>161.0</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>178.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B253" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -49119,14 +49873,17 @@
       </c>
       <c r="BK253" t="n">
         <v>1044.0</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>1073.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B254" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -49309,15 +50066,18 @@
         <v>6.0</v>
       </c>
       <c r="BK254" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BL254" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B255" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -49501,14 +50261,17 @@
       </c>
       <c r="BK255" t="n">
         <v>56.0</v>
+      </c>
+      <c r="BL255" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B256" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -49692,14 +50455,17 @@
       </c>
       <c r="BK256" t="n">
         <v>211.0</v>
+      </c>
+      <c r="BL256" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B257" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -49883,14 +50649,17 @@
       </c>
       <c r="BK257" t="n">
         <v>98.0</v>
+      </c>
+      <c r="BL257" t="n">
+        <v>100.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B258" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -49953,13 +50722,14 @@
       <c r="BI258"/>
       <c r="BJ258"/>
       <c r="BK258"/>
+      <c r="BL258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B259" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -50022,13 +50792,14 @@
       <c r="BI259"/>
       <c r="BJ259"/>
       <c r="BK259"/>
+      <c r="BL259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B260" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -50091,13 +50862,14 @@
       <c r="BI260"/>
       <c r="BJ260"/>
       <c r="BK260"/>
+      <c r="BL260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B261" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -50160,13 +50932,14 @@
       <c r="BI261"/>
       <c r="BJ261"/>
       <c r="BK261"/>
+      <c r="BL261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B262" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -50229,13 +51002,14 @@
       <c r="BI262"/>
       <c r="BJ262"/>
       <c r="BK262"/>
+      <c r="BL262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B263" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -50298,13 +51072,14 @@
       <c r="BI263"/>
       <c r="BJ263"/>
       <c r="BK263"/>
+      <c r="BL263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B264" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -50367,13 +51142,14 @@
       <c r="BI264"/>
       <c r="BJ264"/>
       <c r="BK264"/>
+      <c r="BL264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B265" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -50436,13 +51212,14 @@
       <c r="BI265"/>
       <c r="BJ265"/>
       <c r="BK265"/>
+      <c r="BL265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B266" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -50505,13 +51282,14 @@
       <c r="BI266"/>
       <c r="BJ266"/>
       <c r="BK266"/>
+      <c r="BL266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B267" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -50574,13 +51352,14 @@
       <c r="BI267"/>
       <c r="BJ267"/>
       <c r="BK267"/>
+      <c r="BL267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B268" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -50643,13 +51422,14 @@
       <c r="BI268"/>
       <c r="BJ268"/>
       <c r="BK268"/>
+      <c r="BL268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B269" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -50712,13 +51492,14 @@
       <c r="BI269"/>
       <c r="BJ269"/>
       <c r="BK269"/>
+      <c r="BL269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B270" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -50781,13 +51562,14 @@
       <c r="BI270"/>
       <c r="BJ270"/>
       <c r="BK270"/>
+      <c r="BL270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B271" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -50850,13 +51632,14 @@
       <c r="BI271"/>
       <c r="BJ271"/>
       <c r="BK271"/>
+      <c r="BL271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B272" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -50919,13 +51702,14 @@
       <c r="BI272"/>
       <c r="BJ272"/>
       <c r="BK272"/>
+      <c r="BL272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B273" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -50988,13 +51772,14 @@
       <c r="BI273"/>
       <c r="BJ273"/>
       <c r="BK273"/>
+      <c r="BL273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B274" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -51057,13 +51842,14 @@
       <c r="BI274"/>
       <c r="BJ274"/>
       <c r="BK274"/>
+      <c r="BL274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B275" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -51126,13 +51912,14 @@
       <c r="BI275"/>
       <c r="BJ275"/>
       <c r="BK275"/>
+      <c r="BL275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B276" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -51195,13 +51982,14 @@
       <c r="BI276"/>
       <c r="BJ276"/>
       <c r="BK276"/>
+      <c r="BL276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B277" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -51264,13 +52052,14 @@
       <c r="BI277"/>
       <c r="BJ277"/>
       <c r="BK277"/>
+      <c r="BL277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B278" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -51333,13 +52122,14 @@
       <c r="BI278"/>
       <c r="BJ278"/>
       <c r="BK278"/>
+      <c r="BL278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B279" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -51402,6 +52192,7 @@
       <c r="BI279"/>
       <c r="BJ279"/>
       <c r="BK279"/>
+      <c r="BL279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
